--- a/module classe projet/ModulePrincipal/Parametres.xlsx
+++ b/module classe projet/ModulePrincipal/Parametres.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\GitHub\Antofagasta\module classe projet\ModulePrincipal\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D46631C-41DF-45C0-BD7A-C24F55EA22CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Int couts" sheetId="1" r:id="rId1"/>
-    <sheet name="Int revenus" sheetId="2" r:id="rId2"/>
-    <sheet name="Mar revenus" sheetId="3" r:id="rId3"/>
+    <sheet name="Int couts" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Int revenus" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Mar revenus" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t xml:space="preserve">Prestation de cours </t>
   </si>
@@ -93,43 +87,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="16"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <i val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <i/>
+      <name val="Calibri"/>
+      <i val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -160,30 +155,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -471,32 +457,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F16"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="2.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="2.4"/>
+    <col customWidth="1" max="2" min="2" width="2.4"/>
+    <col customWidth="1" max="3" min="3" width="2.4"/>
+    <col customWidth="1" max="4" min="4" width="22.8"/>
+    <col customWidth="1" max="5" min="5" width="30"/>
+    <col customWidth="1" max="6" min="6" width="26.4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6"/>
+    <row r="3" spans="1:6">
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6"/>
+    <row r="5" spans="1:6"/>
+    <row r="6" spans="1:6">
       <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
@@ -504,117 +499,133 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16">
-        <v>1000</v>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="G1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="2.42578125" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="12" width="12" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="2.4"/>
+    <col customWidth="1" max="2" min="2" width="2.4"/>
+    <col customWidth="1" max="3" min="3" width="2.4"/>
+    <col customWidth="1" max="4" min="4" width="2.4"/>
+    <col customWidth="1" max="5" min="5" width="2.4"/>
+    <col customWidth="1" max="6" min="6" width="2.4"/>
+    <col customWidth="1" max="7" min="7" width="49.2"/>
+    <col customWidth="1" max="8" min="8" width="43.2"/>
+    <col customWidth="1" max="9" min="9" width="26.4"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12"/>
+    <row r="3" spans="1:12">
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12"/>
+    <row r="5" spans="1:12"/>
+    <row r="6" spans="1:12">
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
@@ -631,207 +642,223 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="H12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="G1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="2.42578125" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="12" width="12" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="2.4"/>
+    <col customWidth="1" max="2" min="2" width="2.4"/>
+    <col customWidth="1" max="3" min="3" width="2.4"/>
+    <col customWidth="1" max="4" min="4" width="2.4"/>
+    <col customWidth="1" max="5" min="5" width="2.4"/>
+    <col customWidth="1" max="6" min="6" width="2.4"/>
+    <col customWidth="1" max="7" min="7" width="49.2"/>
+    <col customWidth="1" max="8" min="8" width="44.4"/>
+    <col customWidth="1" max="9" min="9" width="26.4"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12"/>
+    <row r="3" spans="1:12">
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12"/>
+    <row r="5" spans="1:12"/>
+    <row r="6" spans="1:12">
       <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
@@ -848,177 +875,181 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="H12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12"/>
+    <row r="18" spans="1:12"/>
+    <row r="19" spans="1:12"/>
+    <row r="20" spans="1:12"/>
+    <row r="21" spans="1:12">
       <c r="H21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1035,177 +1066,177 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="H22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="H23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="H24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="H25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="H26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="H27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="H28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="H29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>